--- a/documents/parts.xlsx
+++ b/documents/parts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\NyanTimer\information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\NyanTimer\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804050BB-4DCA-44F5-8138-A100084B7A30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A28B61-BB35-40AA-99CC-E9C57E96C1C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61B38AC8-28B7-467B-AB5A-C8723770C29B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>NyanTimer 部品表</t>
     <rPh sb="10" eb="13">
@@ -183,10 +183,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>220u</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブザー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -265,7 +261,11 @@
     <t>https://www.yodobashi.com/product/100000001001156421/</t>
   </si>
   <si>
-    <t>http://akizukidenshi.com/catalog/g/gP-03179/</t>
+    <t>2.2u以上</t>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -632,7 +632,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -774,7 +774,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -787,7 +787,7 @@
         <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -798,7 +798,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -811,7 +811,7 @@
         <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -864,10 +864,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -880,7 +880,7 @@
         <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -891,7 +891,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -904,7 +904,7 @@
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -912,7 +912,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -933,7 +933,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>30</v>
@@ -946,7 +946,7 @@
         <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -1026,11 +1026,11 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
@@ -1041,7 +1041,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -1062,44 +1062,41 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <f>E19*F19</f>
         <v>20</v>
       </c>
-      <c r="H19" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
         <v>48</v>
       </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
       <c r="E20">
-        <v>105</v>
+        <v>260</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20">
         <f>E20*F20</f>
-        <v>210</v>
+        <v>520</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
